--- a/Gerbers/input-panel-CPL-jlcpcb-v1.3.xlsx
+++ b/Gerbers/input-panel-CPL-jlcpcb-v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\github\logicbits\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96CC48-58D9-4BE2-89FE-4E2B3D2F42B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9157CF8C-ACA0-4860-9BF1-3BF8802A793B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="15900" windowHeight="9160" xr2:uid="{26C9176E-92D5-4A76-B457-BC0A67F2BF56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>C2</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>21mm</t>
+  </si>
+  <si>
+    <t>12.5mm</t>
+  </si>
+  <si>
+    <t>44.5mm</t>
+  </si>
+  <si>
+    <t>76.5mm</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>19.5mm</t>
+  </si>
+  <si>
+    <t>48mm</t>
+  </si>
+  <si>
+    <t>51.5mm</t>
+  </si>
+  <si>
+    <t>80mm</t>
+  </si>
+  <si>
+    <t>83.5mm</t>
   </si>
 </sst>
 </file>
@@ -465,7 +495,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -494,11 +524,11 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>12.5</v>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -511,11 +541,11 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>44.5</v>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -528,11 +558,11 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>76.5</v>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -545,11 +575,11 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -562,11 +592,11 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>19.5</v>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -579,11 +609,11 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7">
-        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -596,11 +626,11 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>51.5</v>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -613,11 +643,11 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -630,11 +660,11 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>83.5</v>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
